--- a/OPTEL.UI.Desktop.Test/Assets/MariaSoelUploadDataTest.xlsx
+++ b/OPTEL.UI.Desktop.Test/Assets/MariaSoelUploadDataTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MS Visual Studio 2019\OPTEL\OPTEL.UI.Desktop.Test\bin\Debug\netcoreapp3.1\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MS Visual Studio 2019\OPTEL\OPTEL.UI.Desktop.Test\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207804B-605B-48EA-B418-61BD762CBF09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1031EF-172B-4358-8CC8-81773534CE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3F964C94-F0DC-451B-9B82-1F291A0CA648}"/>
   </bookViews>
@@ -6515,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA776DB7-E681-4B90-8897-81C1B21273F9}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7078,7 +7078,7 @@
         <v>15.1</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/OPTEL.UI.Desktop.Test/Assets/MariaSoelUploadDataTest.xlsx
+++ b/OPTEL.UI.Desktop.Test/Assets/MariaSoelUploadDataTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MS Visual Studio 2019\OPTEL\OPTEL.UI.Desktop.Test\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1031EF-172B-4358-8CC8-81773534CE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F18AFC-09E9-4E8C-931A-A60247DEE187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3F964C94-F0DC-451B-9B82-1F291A0CA648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3F964C94-F0DC-451B-9B82-1F291A0CA648}"/>
   </bookViews>
   <sheets>
     <sheet name="FilmTypes" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="q">[1]Rezeptur!$A$1:$A$126</definedName>
     <definedName name="Rezeptaktiv">'[2]Master Data'!$U$5:$U$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Production speed, m/h</t>
   </si>
   <si>
-    <t>Material cost, EUR/kg</t>
-  </si>
-  <si>
     <t>Film type article</t>
   </si>
   <si>
@@ -88,27 +85,6 @@
     <t>Quantity in running meter, m</t>
   </si>
   <si>
-    <t>Nozzle, mk</t>
-  </si>
-  <si>
-    <t>Calibration, mk</t>
-  </si>
-  <si>
-    <t>Cooling lip, mk</t>
-  </si>
-  <si>
-    <t>Nozzle to change, mk</t>
-  </si>
-  <si>
-    <t>Calibration to change, mk</t>
-  </si>
-  <si>
-    <t>Cooling lip to change, mk</t>
-  </si>
-  <si>
-    <t>Price overdue, EUR/h</t>
-  </si>
-  <si>
     <t>Max production speed, m/min</t>
   </si>
   <si>
@@ -584,6 +560,75 @@
   </si>
   <si>
     <t>Thickness change time, min</t>
+  </si>
+  <si>
+    <t>RollsCount</t>
+  </si>
+  <si>
+    <t>PredefinedTime, min</t>
+  </si>
+  <si>
+    <t>FinishedGoods, kg</t>
+  </si>
+  <si>
+    <t>Waste, kg</t>
+  </si>
+  <si>
+    <t>Thickness change consumption, kg/h</t>
+  </si>
+  <si>
+    <t>Width change consumption, kg/h</t>
+  </si>
+  <si>
+    <t>Consumption, kg/h</t>
+  </si>
+  <si>
+    <t>Nozzle to change, DN</t>
+  </si>
+  <si>
+    <t>Calibration to change, DN</t>
+  </si>
+  <si>
+    <t>Cooling lip to change, DN</t>
+  </si>
+  <si>
+    <t>Nozzle, DN</t>
+  </si>
+  <si>
+    <t>Calibration, DN</t>
+  </si>
+  <si>
+    <t>Cooling lip, DN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material cost, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+  </si>
+  <si>
+    <t>Price overdue, €/h</t>
   </si>
 </sst>
 </file>
@@ -600,7 +645,7 @@
     <numFmt numFmtId="170" formatCode="&quot;ESDD-T-50-&quot;0"/>
     <numFmt numFmtId="171" formatCode="ddd\ \ dd/mm&quot; um &quot;h:mm\ &quot;Uhr&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,19 +694,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -676,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -923,11 +976,56 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -935,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,9 +1089,6 @@
     <xf numFmtId="171" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
@@ -1002,18 +1097,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard 5" xfId="1" xr:uid="{7AF8557D-CE33-44A8-993D-32F34CDDE5B2}"/>
@@ -1043,9 +1143,9 @@
       <sheetName val="Wochenplan_HTF 28.09.2016"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Bezeichnung 1</v>
@@ -1672,7 +1772,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2137,27 +2237,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2168,58 +2268,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154BD0A6-AD3D-47EC-AA33-B68AD9D72646}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A2:A50"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -2227,8 +2328,8 @@
       <c r="D2" s="5">
         <v>59</v>
       </c>
-      <c r="E2" s="16">
-        <v>55</v>
+      <c r="E2" s="38">
+        <v>2.88</v>
       </c>
       <c r="F2" s="5">
         <v>80</v>
@@ -2240,12 +2341,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>40</v>
@@ -2253,8 +2354,8 @@
       <c r="D3" s="6">
         <v>59</v>
       </c>
-      <c r="E3" s="17">
-        <v>58</v>
+      <c r="E3" s="38">
+        <v>2.88</v>
       </c>
       <c r="F3" s="6">
         <v>80</v>
@@ -2266,12 +2367,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>40</v>
@@ -2279,8 +2380,8 @@
       <c r="D4" s="6">
         <v>63</v>
       </c>
-      <c r="E4" s="17">
-        <v>61</v>
+      <c r="E4" s="38">
+        <v>2.88</v>
       </c>
       <c r="F4" s="6">
         <v>80</v>
@@ -2292,12 +2393,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
@@ -2305,8 +2406,8 @@
       <c r="D5" s="6">
         <v>63</v>
       </c>
-      <c r="E5" s="17">
-        <v>64</v>
+      <c r="E5" s="38">
+        <v>2.88</v>
       </c>
       <c r="F5" s="6">
         <v>80</v>
@@ -2318,12 +2419,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>40</v>
@@ -2331,8 +2432,8 @@
       <c r="D6" s="6">
         <v>62</v>
       </c>
-      <c r="E6" s="17">
-        <v>67</v>
+      <c r="E6" s="38">
+        <v>2.88</v>
       </c>
       <c r="F6" s="6">
         <v>80</v>
@@ -2344,12 +2445,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -2357,8 +2458,8 @@
       <c r="D7" s="6">
         <v>62</v>
       </c>
-      <c r="E7" s="17">
-        <v>70</v>
+      <c r="E7" s="38">
+        <v>2.88</v>
       </c>
       <c r="F7" s="6">
         <v>80</v>
@@ -2370,12 +2471,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -2383,8 +2484,8 @@
       <c r="D8" s="6">
         <v>63</v>
       </c>
-      <c r="E8" s="17">
-        <v>78</v>
+      <c r="E8" s="38">
+        <v>2.88</v>
       </c>
       <c r="F8" s="6">
         <v>80</v>
@@ -2396,12 +2497,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -2409,8 +2510,8 @@
       <c r="D9" s="6">
         <v>63</v>
       </c>
-      <c r="E9" s="17">
-        <v>81</v>
+      <c r="E9" s="38">
+        <v>2.88</v>
       </c>
       <c r="F9" s="6">
         <v>80</v>
@@ -2422,12 +2523,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
@@ -2435,8 +2536,8 @@
       <c r="D10" s="6">
         <v>59</v>
       </c>
-      <c r="E10" s="17">
-        <v>79</v>
+      <c r="E10" s="38">
+        <v>2.88</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -2448,12 +2549,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
@@ -2461,8 +2562,8 @@
       <c r="D11" s="6">
         <v>62</v>
       </c>
-      <c r="E11" s="17">
-        <v>90</v>
+      <c r="E11" s="38">
+        <v>2.88</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
@@ -2474,12 +2575,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>40</v>
@@ -2487,8 +2588,8 @@
       <c r="D12" s="6">
         <v>61</v>
       </c>
-      <c r="E12" s="17">
-        <v>95</v>
+      <c r="E12" s="38">
+        <v>2.88</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -2500,12 +2601,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>40</v>
@@ -2513,8 +2614,8 @@
       <c r="D13" s="6">
         <v>62</v>
       </c>
-      <c r="E13" s="17">
-        <v>95</v>
+      <c r="E13" s="38">
+        <v>2.88</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -2526,12 +2627,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>40</v>
@@ -2539,8 +2640,8 @@
       <c r="D14" s="6">
         <v>62</v>
       </c>
-      <c r="E14" s="17">
-        <v>107</v>
+      <c r="E14" s="38">
+        <v>2.88</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
@@ -2552,12 +2653,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>40</v>
@@ -2565,8 +2666,8 @@
       <c r="D15" s="6">
         <v>63</v>
       </c>
-      <c r="E15" s="17">
-        <v>122</v>
+      <c r="E15" s="38">
+        <v>2.88</v>
       </c>
       <c r="F15" s="6">
         <v>120</v>
@@ -2578,12 +2679,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>40</v>
@@ -2591,8 +2692,8 @@
       <c r="D16" s="6">
         <v>58</v>
       </c>
-      <c r="E16" s="17">
-        <v>122</v>
+      <c r="E16" s="38">
+        <v>2.88</v>
       </c>
       <c r="F16" s="6">
         <v>120</v>
@@ -2606,10 +2707,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>40</v>
@@ -2617,8 +2718,8 @@
       <c r="D17" s="6">
         <v>58</v>
       </c>
-      <c r="E17" s="17">
-        <v>125</v>
+      <c r="E17" s="38">
+        <v>2.88</v>
       </c>
       <c r="F17" s="6">
         <v>120</v>
@@ -2632,10 +2733,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>40</v>
@@ -2643,8 +2744,8 @@
       <c r="D18" s="6">
         <v>52</v>
       </c>
-      <c r="E18" s="17">
-        <v>127</v>
+      <c r="E18" s="38">
+        <v>2.88</v>
       </c>
       <c r="F18" s="6">
         <v>140</v>
@@ -2658,10 +2759,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>40</v>
@@ -2669,8 +2770,8 @@
       <c r="D19" s="6">
         <v>54</v>
       </c>
-      <c r="E19" s="17">
-        <v>130</v>
+      <c r="E19" s="38">
+        <v>2.88</v>
       </c>
       <c r="F19" s="6">
         <v>140</v>
@@ -2684,10 +2785,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
@@ -2695,8 +2796,8 @@
       <c r="D20" s="6">
         <v>50</v>
       </c>
-      <c r="E20" s="17">
-        <v>136</v>
+      <c r="E20" s="38">
+        <v>2.88</v>
       </c>
       <c r="F20" s="6">
         <v>140</v>
@@ -2710,10 +2811,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>40</v>
@@ -2721,8 +2822,8 @@
       <c r="D21" s="6">
         <v>49</v>
       </c>
-      <c r="E21" s="17">
-        <v>146</v>
+      <c r="E21" s="38">
+        <v>2.88</v>
       </c>
       <c r="F21" s="6">
         <v>180</v>
@@ -2736,10 +2837,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
@@ -2747,8 +2848,8 @@
       <c r="D22" s="6">
         <v>45</v>
       </c>
-      <c r="E22" s="17">
-        <v>145</v>
+      <c r="E22" s="38">
+        <v>2.88</v>
       </c>
       <c r="F22" s="6">
         <v>180</v>
@@ -2762,10 +2863,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>40</v>
@@ -2773,8 +2874,8 @@
       <c r="D23" s="6">
         <v>44</v>
       </c>
-      <c r="E23" s="17">
-        <v>151</v>
+      <c r="E23" s="38">
+        <v>2.88</v>
       </c>
       <c r="F23" s="6">
         <v>180</v>
@@ -2788,10 +2889,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15">
         <v>45</v>
@@ -2799,8 +2900,8 @@
       <c r="D24" s="6">
         <v>60</v>
       </c>
-      <c r="E24" s="17">
-        <v>66</v>
+      <c r="E24" s="38">
+        <v>2.82</v>
       </c>
       <c r="F24" s="6">
         <v>80</v>
@@ -2814,10 +2915,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C25" s="15">
         <v>45</v>
@@ -2825,8 +2926,8 @@
       <c r="D25" s="6">
         <v>60</v>
       </c>
-      <c r="E25" s="17">
-        <v>70</v>
+      <c r="E25" s="38">
+        <v>2.82</v>
       </c>
       <c r="F25" s="6">
         <v>80</v>
@@ -2840,10 +2941,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" s="15">
         <v>45</v>
@@ -2851,8 +2952,8 @@
       <c r="D26" s="6">
         <v>63</v>
       </c>
-      <c r="E26" s="17">
-        <v>72</v>
+      <c r="E26" s="38">
+        <v>2.82</v>
       </c>
       <c r="F26" s="6">
         <v>80</v>
@@ -2866,10 +2967,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15">
         <v>45</v>
@@ -2877,8 +2978,8 @@
       <c r="D27" s="6">
         <v>63</v>
       </c>
-      <c r="E27" s="17">
-        <v>84</v>
+      <c r="E27" s="38">
+        <v>2.82</v>
       </c>
       <c r="F27" s="6">
         <v>80</v>
@@ -2892,10 +2993,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15">
         <v>45</v>
@@ -2903,8 +3004,8 @@
       <c r="D28" s="6">
         <v>63</v>
       </c>
-      <c r="E28" s="17">
-        <v>88</v>
+      <c r="E28" s="38">
+        <v>2.82</v>
       </c>
       <c r="F28" s="6">
         <v>80</v>
@@ -2918,10 +3019,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C29" s="15">
         <v>45</v>
@@ -2929,8 +3030,8 @@
       <c r="D29" s="6">
         <v>62</v>
       </c>
-      <c r="E29" s="17">
-        <v>89</v>
+      <c r="E29" s="38">
+        <v>2.82</v>
       </c>
       <c r="F29" s="6">
         <v>80</v>
@@ -2944,10 +3045,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C30" s="15">
         <v>45</v>
@@ -2955,8 +3056,8 @@
       <c r="D30" s="6">
         <v>60</v>
       </c>
-      <c r="E30" s="17">
-        <v>90</v>
+      <c r="E30" s="38">
+        <v>2.82</v>
       </c>
       <c r="F30" s="6">
         <v>100</v>
@@ -2970,10 +3071,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C31" s="15">
         <v>45</v>
@@ -2981,8 +3082,8 @@
       <c r="D31" s="6">
         <v>63</v>
       </c>
-      <c r="E31" s="17">
-        <v>102</v>
+      <c r="E31" s="38">
+        <v>2.82</v>
       </c>
       <c r="F31" s="6">
         <v>100</v>
@@ -2996,10 +3097,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C32" s="15">
         <v>45</v>
@@ -3007,8 +3108,8 @@
       <c r="D32" s="6">
         <v>63</v>
       </c>
-      <c r="E32" s="17">
-        <v>105</v>
+      <c r="E32" s="38">
+        <v>2.82</v>
       </c>
       <c r="F32" s="6">
         <v>100</v>
@@ -3022,10 +3123,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C33" s="15">
         <v>45</v>
@@ -3033,8 +3134,8 @@
       <c r="D33" s="6">
         <v>56</v>
       </c>
-      <c r="E33" s="17">
-        <v>99</v>
+      <c r="E33" s="38">
+        <v>2.82</v>
       </c>
       <c r="F33" s="6">
         <v>100</v>
@@ -3048,10 +3149,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C34" s="15">
         <v>45</v>
@@ -3059,8 +3160,8 @@
       <c r="D34" s="6">
         <v>56</v>
       </c>
-      <c r="E34" s="17">
-        <v>99</v>
+      <c r="E34" s="38">
+        <v>2.82</v>
       </c>
       <c r="F34" s="6">
         <v>100</v>
@@ -3074,10 +3175,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C35" s="15">
         <v>45</v>
@@ -3085,8 +3186,8 @@
       <c r="D35" s="6">
         <v>63</v>
       </c>
-      <c r="E35" s="17">
-        <v>122</v>
+      <c r="E35" s="38">
+        <v>2.82</v>
       </c>
       <c r="F35" s="6">
         <v>100</v>
@@ -3100,10 +3201,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C36" s="15">
         <v>45</v>
@@ -3111,8 +3212,8 @@
       <c r="D36" s="6">
         <v>63</v>
       </c>
-      <c r="E36" s="17">
-        <v>134</v>
+      <c r="E36" s="38">
+        <v>2.82</v>
       </c>
       <c r="F36" s="6">
         <v>120</v>
@@ -3126,10 +3227,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C37" s="15">
         <v>45</v>
@@ -3137,8 +3238,8 @@
       <c r="D37" s="6">
         <v>63</v>
       </c>
-      <c r="E37" s="17">
-        <v>136</v>
+      <c r="E37" s="38">
+        <v>2.82</v>
       </c>
       <c r="F37" s="6">
         <v>120</v>
@@ -3152,10 +3253,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="15">
         <v>45</v>
@@ -3163,8 +3264,8 @@
       <c r="D38" s="6">
         <v>58</v>
       </c>
-      <c r="E38" s="17">
-        <v>133</v>
+      <c r="E38" s="38">
+        <v>2.82</v>
       </c>
       <c r="F38" s="6">
         <v>120</v>
@@ -3178,10 +3279,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C39" s="15">
         <v>45</v>
@@ -3189,8 +3290,8 @@
       <c r="D39" s="6">
         <v>61</v>
       </c>
-      <c r="E39" s="17">
-        <v>134</v>
+      <c r="E39" s="38">
+        <v>2.82</v>
       </c>
       <c r="F39" s="6">
         <v>120</v>
@@ -3204,10 +3305,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" s="15">
         <v>45</v>
@@ -3215,8 +3316,8 @@
       <c r="D40" s="6">
         <v>50</v>
       </c>
-      <c r="E40" s="17">
-        <v>137</v>
+      <c r="E40" s="38">
+        <v>2.82</v>
       </c>
       <c r="F40" s="6">
         <v>140</v>
@@ -3230,10 +3331,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C41" s="15">
         <v>45</v>
@@ -3241,8 +3342,8 @@
       <c r="D41" s="6">
         <v>50</v>
       </c>
-      <c r="E41" s="17">
-        <v>146</v>
+      <c r="E41" s="38">
+        <v>2.82</v>
       </c>
       <c r="F41" s="6">
         <v>140</v>
@@ -3256,10 +3357,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C42" s="15">
         <v>45</v>
@@ -3267,8 +3368,8 @@
       <c r="D42" s="6">
         <v>47</v>
       </c>
-      <c r="E42" s="17">
-        <v>158</v>
+      <c r="E42" s="38">
+        <v>2.82</v>
       </c>
       <c r="F42" s="6">
         <v>180</v>
@@ -3282,10 +3383,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C43" s="15">
         <v>45</v>
@@ -3293,8 +3394,8 @@
       <c r="D43" s="6">
         <v>45</v>
       </c>
-      <c r="E43" s="17">
-        <v>155</v>
+      <c r="E43" s="38">
+        <v>2.82</v>
       </c>
       <c r="F43" s="6">
         <v>180</v>
@@ -3308,10 +3409,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C44" s="15">
         <v>45</v>
@@ -3319,8 +3420,8 @@
       <c r="D44" s="6">
         <v>42</v>
       </c>
-      <c r="E44" s="17">
-        <v>158</v>
+      <c r="E44" s="38">
+        <v>2.82</v>
       </c>
       <c r="F44" s="6">
         <v>180</v>
@@ -3334,10 +3435,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C45" s="15">
         <v>45</v>
@@ -3345,8 +3446,8 @@
       <c r="D45" s="6">
         <v>60</v>
       </c>
-      <c r="E45" s="17">
-        <v>70</v>
+      <c r="E45" s="38">
+        <v>2.82</v>
       </c>
       <c r="F45" s="6">
         <v>80</v>
@@ -3360,10 +3461,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C46" s="15">
         <v>45</v>
@@ -3371,8 +3472,8 @@
       <c r="D46" s="6">
         <v>62</v>
       </c>
-      <c r="E46" s="17">
-        <v>89</v>
+      <c r="E46" s="38">
+        <v>2.82</v>
       </c>
       <c r="F46" s="6">
         <v>80</v>
@@ -3386,10 +3487,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C47" s="15">
         <v>45</v>
@@ -3397,8 +3498,8 @@
       <c r="D47" s="6">
         <v>63</v>
       </c>
-      <c r="E47" s="17">
-        <v>105</v>
+      <c r="E47" s="38">
+        <v>2.82</v>
       </c>
       <c r="F47" s="6">
         <v>100</v>
@@ -3412,10 +3513,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C48" s="15">
         <v>45</v>
@@ -3423,8 +3524,8 @@
       <c r="D48" s="6">
         <v>56</v>
       </c>
-      <c r="E48" s="17">
-        <v>99</v>
+      <c r="E48" s="38">
+        <v>2.82</v>
       </c>
       <c r="F48" s="6">
         <v>100</v>
@@ -3438,10 +3539,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C49" s="15">
         <v>45</v>
@@ -3449,8 +3550,8 @@
       <c r="D49" s="6">
         <v>63</v>
       </c>
-      <c r="E49" s="17">
-        <v>136</v>
+      <c r="E49" s="38">
+        <v>2.82</v>
       </c>
       <c r="F49" s="6">
         <v>120</v>
@@ -3464,10 +3565,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C50" s="15">
         <v>50</v>
@@ -3475,8 +3576,8 @@
       <c r="D50" s="6">
         <v>62</v>
       </c>
-      <c r="E50" s="17">
-        <v>65</v>
+      <c r="E50" s="38">
+        <v>2.82</v>
       </c>
       <c r="F50" s="6">
         <v>80</v>
@@ -3490,10 +3591,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C51" s="15">
         <v>50</v>
@@ -3501,8 +3602,8 @@
       <c r="D51" s="6">
         <v>59</v>
       </c>
-      <c r="E51" s="17">
-        <v>65</v>
+      <c r="E51" s="38">
+        <v>2.82</v>
       </c>
       <c r="F51" s="6">
         <v>80</v>
@@ -3516,10 +3617,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52" s="15">
         <v>50</v>
@@ -3527,8 +3628,8 @@
       <c r="D52" s="6">
         <v>59</v>
       </c>
-      <c r="E52" s="17">
-        <v>68</v>
+      <c r="E52" s="38">
+        <v>2.82</v>
       </c>
       <c r="F52" s="6">
         <v>80</v>
@@ -3542,10 +3643,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C53" s="15">
         <v>50</v>
@@ -3553,8 +3654,8 @@
       <c r="D53" s="6">
         <v>60</v>
       </c>
-      <c r="E53" s="17">
-        <v>76</v>
+      <c r="E53" s="38">
+        <v>2.82</v>
       </c>
       <c r="F53" s="6">
         <v>80</v>
@@ -3568,10 +3669,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C54" s="15">
         <v>50</v>
@@ -3579,8 +3680,8 @@
       <c r="D54" s="6">
         <v>60</v>
       </c>
-      <c r="E54" s="17">
-        <v>80</v>
+      <c r="E54" s="38">
+        <v>2.82</v>
       </c>
       <c r="F54" s="6">
         <v>80</v>
@@ -3594,10 +3695,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C55" s="15">
         <v>50</v>
@@ -3605,8 +3706,8 @@
       <c r="D55" s="6">
         <v>60</v>
       </c>
-      <c r="E55" s="17">
-        <v>85</v>
+      <c r="E55" s="38">
+        <v>2.82</v>
       </c>
       <c r="F55" s="6">
         <v>80</v>
@@ -3620,10 +3721,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C56" s="15">
         <v>50</v>
@@ -3631,8 +3732,8 @@
       <c r="D56" s="6">
         <v>63</v>
       </c>
-      <c r="E56" s="17">
-        <v>101</v>
+      <c r="E56" s="38">
+        <v>2.82</v>
       </c>
       <c r="F56" s="6">
         <v>80</v>
@@ -3646,10 +3747,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C57" s="15">
         <v>50</v>
@@ -3657,8 +3758,8 @@
       <c r="D57" s="6">
         <v>63</v>
       </c>
-      <c r="E57" s="17">
-        <v>117</v>
+      <c r="E57" s="38">
+        <v>2.82</v>
       </c>
       <c r="F57" s="6">
         <v>100</v>
@@ -3672,10 +3773,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C58" s="15">
         <v>50</v>
@@ -3683,8 +3784,8 @@
       <c r="D58" s="6">
         <v>63</v>
       </c>
-      <c r="E58" s="17">
-        <v>132</v>
+      <c r="E58" s="38">
+        <v>2.82</v>
       </c>
       <c r="F58" s="6">
         <v>100</v>
@@ -3698,10 +3799,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C59" s="15">
         <v>50</v>
@@ -3709,8 +3810,8 @@
       <c r="D59" s="6">
         <v>63</v>
       </c>
-      <c r="E59" s="17">
-        <v>144</v>
+      <c r="E59" s="38">
+        <v>2.82</v>
       </c>
       <c r="F59" s="6">
         <v>120</v>
@@ -3724,10 +3825,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C60" s="15">
         <v>50</v>
@@ -3735,8 +3836,8 @@
       <c r="D60" s="6">
         <v>59</v>
       </c>
-      <c r="E60" s="17">
-        <v>159</v>
+      <c r="E60" s="38">
+        <v>2.82</v>
       </c>
       <c r="F60" s="6">
         <v>120</v>
@@ -3750,10 +3851,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C61" s="15">
         <v>50</v>
@@ -3761,8 +3862,8 @@
       <c r="D61" s="6">
         <v>50</v>
       </c>
-      <c r="E61" s="17">
-        <v>148</v>
+      <c r="E61" s="38">
+        <v>2.82</v>
       </c>
       <c r="F61" s="6">
         <v>140</v>
@@ -3776,10 +3877,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C62" s="15">
         <v>50</v>
@@ -3787,8 +3888,8 @@
       <c r="D62" s="6">
         <v>42</v>
       </c>
-      <c r="E62" s="17">
-        <v>150</v>
+      <c r="E62" s="38">
+        <v>2.82</v>
       </c>
       <c r="F62" s="6">
         <v>180</v>
@@ -3802,10 +3903,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C63" s="15">
         <v>50</v>
@@ -3813,8 +3914,8 @@
       <c r="D63" s="6">
         <v>42</v>
       </c>
-      <c r="E63" s="17">
-        <v>155</v>
+      <c r="E63" s="38">
+        <v>2.82</v>
       </c>
       <c r="F63" s="6">
         <v>180</v>
@@ -3828,10 +3929,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C64" s="15">
         <v>50</v>
@@ -3839,8 +3940,8 @@
       <c r="D64" s="6">
         <v>58</v>
       </c>
-      <c r="E64" s="17">
-        <v>125</v>
+      <c r="E64" s="38">
+        <v>2.82</v>
       </c>
       <c r="F64" s="6">
         <v>120</v>
@@ -3854,10 +3955,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C65" s="15">
         <v>50</v>
@@ -3865,8 +3966,8 @@
       <c r="D65" s="6">
         <v>54</v>
       </c>
-      <c r="E65" s="17">
-        <v>130</v>
+      <c r="E65" s="38">
+        <v>2.82</v>
       </c>
       <c r="F65" s="6">
         <v>140</v>
@@ -3883,7 +3984,7 @@
         <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C66" s="15">
         <v>40</v>
@@ -3891,8 +3992,8 @@
       <c r="D66" s="6">
         <v>63</v>
       </c>
-      <c r="E66" s="17">
-        <v>61</v>
+      <c r="E66" s="38">
+        <v>2.82</v>
       </c>
       <c r="F66" s="6">
         <v>80</v>
@@ -3909,7 +4010,7 @@
         <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C67" s="15">
         <v>40</v>
@@ -3917,8 +4018,8 @@
       <c r="D67" s="6">
         <v>62</v>
       </c>
-      <c r="E67" s="17">
-        <v>70</v>
+      <c r="E67" s="38">
+        <v>2.82</v>
       </c>
       <c r="F67" s="6">
         <v>80</v>
@@ -3935,7 +4036,7 @@
         <v>250</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C68" s="15">
         <v>40</v>
@@ -3943,8 +4044,8 @@
       <c r="D68" s="6">
         <v>63</v>
       </c>
-      <c r="E68" s="17">
-        <v>78</v>
+      <c r="E68" s="38">
+        <v>2.82</v>
       </c>
       <c r="F68" s="6">
         <v>80</v>
@@ -3961,7 +4062,7 @@
         <v>450</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C69" s="15">
         <v>40</v>
@@ -3969,8 +4070,8 @@
       <c r="D69" s="6">
         <v>58</v>
       </c>
-      <c r="E69" s="17">
-        <v>125</v>
+      <c r="E69" s="38">
+        <v>2.82</v>
       </c>
       <c r="F69" s="6">
         <v>120</v>
@@ -3987,7 +4088,7 @@
         <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C70" s="15">
         <v>40</v>
@@ -3995,8 +4096,8 @@
       <c r="D70" s="6">
         <v>62</v>
       </c>
-      <c r="E70" s="17">
-        <v>60</v>
+      <c r="E70" s="38">
+        <v>3.28</v>
       </c>
       <c r="F70" s="6">
         <v>80</v>
@@ -4013,7 +4114,7 @@
         <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C71" s="15">
         <v>40</v>
@@ -4021,8 +4122,8 @@
       <c r="D71" s="6">
         <v>61</v>
       </c>
-      <c r="E71" s="17">
-        <v>69</v>
+      <c r="E71" s="38">
+        <v>3.28</v>
       </c>
       <c r="F71" s="6">
         <v>80</v>
@@ -4039,7 +4140,7 @@
         <v>250</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C72" s="15">
         <v>40</v>
@@ -4047,8 +4148,8 @@
       <c r="D72" s="6">
         <v>62</v>
       </c>
-      <c r="E72" s="17">
-        <v>76</v>
+      <c r="E72" s="38">
+        <v>3.28</v>
       </c>
       <c r="F72" s="6">
         <v>80</v>
@@ -4065,7 +4166,7 @@
         <v>425</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C73" s="15">
         <v>40</v>
@@ -4073,8 +4174,8 @@
       <c r="D73" s="6">
         <v>57</v>
       </c>
-      <c r="E73" s="17">
-        <v>116</v>
+      <c r="E73" s="38">
+        <v>3.28</v>
       </c>
       <c r="F73" s="6">
         <v>120</v>
@@ -4091,7 +4192,7 @@
         <v>450</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C74" s="15">
         <v>40</v>
@@ -4099,8 +4200,8 @@
       <c r="D74" s="6">
         <v>58</v>
       </c>
-      <c r="E74" s="17">
-        <v>123</v>
+      <c r="E74" s="38">
+        <v>3.28</v>
       </c>
       <c r="F74" s="6">
         <v>120</v>
@@ -4117,7 +4218,7 @@
         <v>500</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C75" s="15">
         <v>40</v>
@@ -4125,8 +4226,8 @@
       <c r="D75" s="6">
         <v>50</v>
       </c>
-      <c r="E75" s="17">
-        <v>119</v>
+      <c r="E75" s="38">
+        <v>3.28</v>
       </c>
       <c r="F75" s="6">
         <v>140</v>
@@ -4143,7 +4244,7 @@
         <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C76" s="15">
         <v>40</v>
@@ -4151,8 +4252,8 @@
       <c r="D76" s="6">
         <v>62</v>
       </c>
-      <c r="E76" s="17">
-        <v>60</v>
+      <c r="E76" s="38">
+        <v>2.69</v>
       </c>
       <c r="F76" s="6">
         <v>80</v>
@@ -4169,7 +4270,7 @@
         <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C77" s="15">
         <v>40</v>
@@ -4177,8 +4278,8 @@
       <c r="D77" s="6">
         <v>61</v>
       </c>
-      <c r="E77" s="17">
-        <v>69</v>
+      <c r="E77" s="38">
+        <v>2.69</v>
       </c>
       <c r="F77" s="6">
         <v>80</v>
@@ -4195,7 +4296,7 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C78" s="15">
         <v>40</v>
@@ -4203,8 +4304,8 @@
       <c r="D78" s="6">
         <v>62</v>
       </c>
-      <c r="E78" s="17">
-        <v>76</v>
+      <c r="E78" s="38">
+        <v>2.69</v>
       </c>
       <c r="F78" s="6">
         <v>80</v>
@@ -4221,7 +4322,7 @@
         <v>425</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C79" s="15">
         <v>40</v>
@@ -4229,8 +4330,8 @@
       <c r="D79" s="6">
         <v>57</v>
       </c>
-      <c r="E79" s="17">
-        <v>116</v>
+      <c r="E79" s="38">
+        <v>2.69</v>
       </c>
       <c r="F79" s="6">
         <v>120</v>
@@ -4247,7 +4348,7 @@
         <v>450</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C80" s="15">
         <v>40</v>
@@ -4255,8 +4356,8 @@
       <c r="D80" s="6">
         <v>58</v>
       </c>
-      <c r="E80" s="17">
-        <v>123</v>
+      <c r="E80" s="38">
+        <v>2.69</v>
       </c>
       <c r="F80" s="6">
         <v>120</v>
@@ -4273,7 +4374,7 @@
         <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C81" s="15">
         <v>40</v>
@@ -4281,8 +4382,8 @@
       <c r="D81" s="6">
         <v>62</v>
       </c>
-      <c r="E81" s="17">
-        <v>60</v>
+      <c r="E81" s="38">
+        <v>3.23</v>
       </c>
       <c r="F81" s="6">
         <v>80</v>
@@ -4299,7 +4400,7 @@
         <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C82" s="15">
         <v>40</v>
@@ -4307,8 +4408,8 @@
       <c r="D82" s="6">
         <v>61</v>
       </c>
-      <c r="E82" s="17">
-        <v>69</v>
+      <c r="E82" s="38">
+        <v>3.23</v>
       </c>
       <c r="F82" s="6">
         <v>80</v>
@@ -4325,7 +4426,7 @@
         <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C83" s="15">
         <v>40</v>
@@ -4333,8 +4434,8 @@
       <c r="D83" s="6">
         <v>62</v>
       </c>
-      <c r="E83" s="17">
-        <v>76</v>
+      <c r="E83" s="38">
+        <v>3.23</v>
       </c>
       <c r="F83" s="6">
         <v>80</v>
@@ -4351,7 +4452,7 @@
         <v>280</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C84" s="15">
         <v>40</v>
@@ -4359,8 +4460,8 @@
       <c r="D84" s="6">
         <v>59</v>
       </c>
-      <c r="E84" s="17">
-        <v>79</v>
+      <c r="E84" s="38">
+        <v>3.23</v>
       </c>
       <c r="F84" s="6">
         <v>100</v>
@@ -4377,7 +4478,7 @@
         <v>300</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C85" s="15">
         <v>40</v>
@@ -4385,8 +4486,8 @@
       <c r="D85" s="6">
         <v>62</v>
       </c>
-      <c r="E85" s="17">
-        <v>90</v>
+      <c r="E85" s="38">
+        <v>3.23</v>
       </c>
       <c r="F85" s="6">
         <v>100</v>
@@ -4403,7 +4504,7 @@
         <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C86" s="15">
         <v>40</v>
@@ -4411,8 +4512,8 @@
       <c r="D86" s="6">
         <v>62</v>
       </c>
-      <c r="E86" s="17">
-        <v>107</v>
+      <c r="E86" s="38">
+        <v>3.23</v>
       </c>
       <c r="F86" s="6">
         <v>100</v>
@@ -4429,7 +4530,7 @@
         <v>375</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C87" s="15">
         <v>40</v>
@@ -4437,8 +4538,8 @@
       <c r="D87" s="6">
         <v>62</v>
       </c>
-      <c r="E87" s="17">
-        <v>117</v>
+      <c r="E87" s="38">
+        <v>3.23</v>
       </c>
       <c r="F87" s="6">
         <v>100</v>
@@ -4455,7 +4556,7 @@
         <v>400</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C88" s="15">
         <v>40</v>
@@ -4463,8 +4564,8 @@
       <c r="D88" s="6">
         <v>63</v>
       </c>
-      <c r="E88" s="17">
-        <v>122</v>
+      <c r="E88" s="38">
+        <v>3.23</v>
       </c>
       <c r="F88" s="6">
         <v>120</v>
@@ -4481,7 +4582,7 @@
         <v>425</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C89" s="15">
         <v>40</v>
@@ -4489,8 +4590,8 @@
       <c r="D89" s="6">
         <v>57</v>
       </c>
-      <c r="E89" s="17">
-        <v>116</v>
+      <c r="E89" s="38">
+        <v>3.23</v>
       </c>
       <c r="F89" s="6">
         <v>120</v>
@@ -4507,7 +4608,7 @@
         <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C90" s="15">
         <v>40</v>
@@ -4515,8 +4616,8 @@
       <c r="D90" s="6">
         <v>58</v>
       </c>
-      <c r="E90" s="17">
-        <v>123</v>
+      <c r="E90" s="38">
+        <v>3.23</v>
       </c>
       <c r="F90" s="6">
         <v>120</v>
@@ -4533,7 +4634,7 @@
         <v>500</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C91" s="15">
         <v>40</v>
@@ -4541,8 +4642,8 @@
       <c r="D91" s="6">
         <v>50</v>
       </c>
-      <c r="E91" s="17">
-        <v>119</v>
+      <c r="E91" s="38">
+        <v>3.23</v>
       </c>
       <c r="F91" s="6">
         <v>140</v>
@@ -4559,7 +4660,7 @@
         <v>600</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C92" s="15">
         <v>40</v>
@@ -4567,8 +4668,8 @@
       <c r="D92" s="6">
         <v>49</v>
       </c>
-      <c r="E92" s="17">
-        <v>146</v>
+      <c r="E92" s="38">
+        <v>3.23</v>
       </c>
       <c r="F92" s="6">
         <v>180</v>
@@ -4585,7 +4686,7 @@
         <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C93" s="15">
         <v>40</v>
@@ -4593,8 +4694,8 @@
       <c r="D93" s="6">
         <v>62</v>
       </c>
-      <c r="E93" s="17">
-        <v>60</v>
+      <c r="E93" s="38">
+        <v>3.23</v>
       </c>
       <c r="F93" s="6">
         <v>80</v>
@@ -4611,7 +4712,7 @@
         <v>250</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C94" s="15">
         <v>40</v>
@@ -4619,8 +4720,8 @@
       <c r="D94" s="6">
         <v>62</v>
       </c>
-      <c r="E94" s="17">
-        <v>76</v>
+      <c r="E94" s="38">
+        <v>3.23</v>
       </c>
       <c r="F94" s="6">
         <v>80</v>
@@ -4637,7 +4738,7 @@
         <v>300</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C95" s="15">
         <v>40</v>
@@ -4645,8 +4746,8 @@
       <c r="D95" s="6">
         <v>62</v>
       </c>
-      <c r="E95" s="17">
-        <v>90</v>
+      <c r="E95" s="38">
+        <v>3.23</v>
       </c>
       <c r="F95" s="6">
         <v>100</v>
@@ -4663,7 +4764,7 @@
         <v>350</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C96" s="15">
         <v>40</v>
@@ -4671,8 +4772,8 @@
       <c r="D96" s="6">
         <v>62</v>
       </c>
-      <c r="E96" s="17">
-        <v>107</v>
+      <c r="E96" s="38">
+        <v>3.23</v>
       </c>
       <c r="F96" s="6">
         <v>100</v>
@@ -4689,7 +4790,7 @@
         <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C97" s="15">
         <v>40</v>
@@ -4697,8 +4798,8 @@
       <c r="D97" s="6">
         <v>63</v>
       </c>
-      <c r="E97" s="17">
-        <v>122</v>
+      <c r="E97" s="38">
+        <v>3.23</v>
       </c>
       <c r="F97" s="6">
         <v>120</v>
@@ -4715,7 +4816,7 @@
         <v>425</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C98" s="15">
         <v>40</v>
@@ -4723,8 +4824,8 @@
       <c r="D98" s="6">
         <v>57</v>
       </c>
-      <c r="E98" s="17">
-        <v>116</v>
+      <c r="E98" s="38">
+        <v>3.23</v>
       </c>
       <c r="F98" s="6">
         <v>120</v>
@@ -4741,7 +4842,7 @@
         <v>450</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C99" s="15">
         <v>40</v>
@@ -4749,8 +4850,8 @@
       <c r="D99" s="6">
         <v>58</v>
       </c>
-      <c r="E99" s="17">
-        <v>123</v>
+      <c r="E99" s="38">
+        <v>3.23</v>
       </c>
       <c r="F99" s="6">
         <v>120</v>
@@ -4767,7 +4868,7 @@
         <v>475</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C100" s="15">
         <v>40</v>
@@ -4775,8 +4876,8 @@
       <c r="D100" s="6">
         <v>58</v>
       </c>
-      <c r="E100" s="17">
-        <v>133</v>
+      <c r="E100" s="38">
+        <v>3.23</v>
       </c>
       <c r="F100" s="6">
         <v>140</v>
@@ -4793,7 +4894,7 @@
         <v>500</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C101" s="15">
         <v>40</v>
@@ -4801,8 +4902,8 @@
       <c r="D101" s="6">
         <v>50</v>
       </c>
-      <c r="E101" s="17">
-        <v>119</v>
+      <c r="E101" s="38">
+        <v>3.23</v>
       </c>
       <c r="F101" s="6">
         <v>140</v>
@@ -4819,7 +4920,7 @@
         <v>550</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C102" s="15">
         <v>40</v>
@@ -4827,8 +4928,8 @@
       <c r="D102" s="6">
         <v>50</v>
       </c>
-      <c r="E102" s="17">
-        <v>136</v>
+      <c r="E102" s="38">
+        <v>3.23</v>
       </c>
       <c r="F102" s="6">
         <v>140</v>
@@ -4845,7 +4946,7 @@
         <v>600</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C103" s="15">
         <v>40</v>
@@ -4853,8 +4954,8 @@
       <c r="D103" s="6">
         <v>49</v>
       </c>
-      <c r="E103" s="17">
-        <v>146</v>
+      <c r="E103" s="38">
+        <v>3.23</v>
       </c>
       <c r="F103" s="6">
         <v>180</v>
@@ -4868,10 +4969,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C104" s="15">
         <v>60</v>
@@ -4879,8 +4980,8 @@
       <c r="D104" s="6">
         <v>50</v>
       </c>
-      <c r="E104" s="17">
-        <v>76</v>
+      <c r="E104" s="38">
+        <v>2.94</v>
       </c>
       <c r="F104" s="6">
         <v>80</v>
@@ -4894,10 +4995,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C105" s="15">
         <v>60</v>
@@ -4905,8 +5006,8 @@
       <c r="D105" s="6">
         <v>49</v>
       </c>
-      <c r="E105" s="17">
-        <v>96</v>
+      <c r="E105" s="38">
+        <v>2.94</v>
       </c>
       <c r="F105" s="6">
         <v>80</v>
@@ -4920,10 +5021,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C106" s="15">
         <v>70</v>
@@ -4931,8 +5032,8 @@
       <c r="D106" s="6">
         <v>44</v>
       </c>
-      <c r="E106" s="17">
-        <v>90</v>
+      <c r="E106" s="38">
+        <v>2.94</v>
       </c>
       <c r="F106" s="6">
         <v>80</v>
@@ -4946,10 +5047,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C107" s="15">
         <v>70</v>
@@ -4957,8 +5058,8 @@
       <c r="D107" s="6">
         <v>45</v>
       </c>
-      <c r="E107" s="17">
-        <v>101</v>
+      <c r="E107" s="38">
+        <v>2.94</v>
       </c>
       <c r="F107" s="6">
         <v>80</v>
@@ -4972,10 +5073,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C108" s="15">
         <v>70</v>
@@ -4983,8 +5084,8 @@
       <c r="D108" s="6">
         <v>45</v>
       </c>
-      <c r="E108" s="17">
-        <v>103</v>
+      <c r="E108" s="38">
+        <v>2.94</v>
       </c>
       <c r="F108" s="6">
         <v>80</v>
@@ -4998,10 +5099,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C109" s="15">
         <v>70</v>
@@ -5009,8 +5110,8 @@
       <c r="D109" s="6">
         <v>48</v>
       </c>
-      <c r="E109" s="17">
-        <v>131</v>
+      <c r="E109" s="38">
+        <v>2.94</v>
       </c>
       <c r="F109" s="6">
         <v>100</v>
@@ -5024,10 +5125,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C110" s="15">
         <v>70</v>
@@ -5035,8 +5136,8 @@
       <c r="D110" s="6">
         <v>48</v>
       </c>
-      <c r="E110" s="17">
-        <v>133</v>
+      <c r="E110" s="38">
+        <v>2.94</v>
       </c>
       <c r="F110" s="6">
         <v>100</v>
@@ -5050,10 +5151,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C111" s="15">
         <v>70</v>
@@ -5061,8 +5162,8 @@
       <c r="D111" s="6">
         <v>40</v>
       </c>
-      <c r="E111" s="17">
-        <v>128</v>
+      <c r="E111" s="38">
+        <v>2.94</v>
       </c>
       <c r="F111" s="6">
         <v>120</v>
@@ -5076,10 +5177,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C112" s="15">
         <v>70</v>
@@ -5087,8 +5188,8 @@
       <c r="D112" s="6">
         <v>40</v>
       </c>
-      <c r="E112" s="17">
-        <v>130</v>
+      <c r="E112" s="38">
+        <v>2.94</v>
       </c>
       <c r="F112" s="6">
         <v>120</v>
@@ -5102,10 +5203,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C113" s="15">
         <v>70</v>
@@ -5113,8 +5214,8 @@
       <c r="D113" s="6">
         <v>33</v>
       </c>
-      <c r="E113" s="17">
-        <v>135</v>
+      <c r="E113" s="38">
+        <v>2.94</v>
       </c>
       <c r="F113" s="6">
         <v>140</v>
@@ -5128,10 +5229,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C114" s="15">
         <v>85</v>
@@ -5139,8 +5240,8 @@
       <c r="D114" s="6">
         <v>47</v>
       </c>
-      <c r="E114" s="17">
-        <v>116</v>
+      <c r="E114" s="38">
+        <v>2.94</v>
       </c>
       <c r="F114" s="6">
         <v>80</v>
@@ -5154,10 +5255,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C115" s="15">
         <v>85</v>
@@ -5165,8 +5266,8 @@
       <c r="D115" s="6">
         <v>50</v>
       </c>
-      <c r="E115" s="17">
-        <v>133</v>
+      <c r="E115" s="38">
+        <v>2.94</v>
       </c>
       <c r="F115" s="6">
         <v>80</v>
@@ -5180,10 +5281,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C116" s="15">
         <v>85</v>
@@ -5191,8 +5292,8 @@
       <c r="D116" s="6">
         <v>50</v>
       </c>
-      <c r="E116" s="17">
-        <v>135</v>
+      <c r="E116" s="38">
+        <v>2.94</v>
       </c>
       <c r="F116" s="6">
         <v>80</v>
@@ -5206,10 +5307,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C117" s="15">
         <v>85</v>
@@ -5217,8 +5318,8 @@
       <c r="D117" s="6">
         <v>50</v>
       </c>
-      <c r="E117" s="17">
-        <v>150</v>
+      <c r="E117" s="38">
+        <v>2.94</v>
       </c>
       <c r="F117" s="6">
         <v>100</v>
@@ -5232,10 +5333,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C118" s="15">
         <v>85</v>
@@ -5243,8 +5344,8 @@
       <c r="D118" s="6">
         <v>45</v>
       </c>
-      <c r="E118" s="17">
-        <v>146</v>
+      <c r="E118" s="38">
+        <v>2.94</v>
       </c>
       <c r="F118" s="6">
         <v>100</v>
@@ -5258,10 +5359,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C119" s="15">
         <v>85</v>
@@ -5269,8 +5370,8 @@
       <c r="D119" s="6">
         <v>45</v>
       </c>
-      <c r="E119" s="17">
-        <v>148</v>
+      <c r="E119" s="38">
+        <v>2.94</v>
       </c>
       <c r="F119" s="6">
         <v>100</v>
@@ -5284,10 +5385,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C120" s="15">
         <v>85</v>
@@ -5295,8 +5396,8 @@
       <c r="D120" s="6">
         <v>42</v>
       </c>
-      <c r="E120" s="17">
-        <v>158</v>
+      <c r="E120" s="38">
+        <v>2.94</v>
       </c>
       <c r="F120" s="6">
         <v>120</v>
@@ -5310,10 +5411,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C121" s="15">
         <v>85</v>
@@ -5321,8 +5422,8 @@
       <c r="D121" s="6">
         <v>42</v>
       </c>
-      <c r="E121" s="17">
-        <v>159</v>
+      <c r="E121" s="38">
+        <v>2.94</v>
       </c>
       <c r="F121" s="6">
         <v>120</v>
@@ -5336,10 +5437,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C122" s="15">
         <v>85</v>
@@ -5347,8 +5448,8 @@
       <c r="D122" s="6">
         <v>37</v>
       </c>
-      <c r="E122" s="17">
-        <v>157</v>
+      <c r="E122" s="38">
+        <v>2.94</v>
       </c>
       <c r="F122" s="6">
         <v>120</v>
@@ -5362,10 +5463,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C123" s="15">
         <v>85</v>
@@ -5373,8 +5474,8 @@
       <c r="D123" s="6">
         <v>30</v>
       </c>
-      <c r="E123" s="17">
-        <v>148</v>
+      <c r="E123" s="38">
+        <v>2.94</v>
       </c>
       <c r="F123" s="6">
         <v>140</v>
@@ -5388,10 +5489,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C124" s="15">
         <v>105</v>
@@ -5399,8 +5500,8 @@
       <c r="D124" s="6">
         <v>45</v>
       </c>
-      <c r="E124" s="17">
-        <v>118</v>
+      <c r="E124" s="38">
+        <v>2.94</v>
       </c>
       <c r="F124" s="6">
         <v>80</v>
@@ -5414,10 +5515,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C125" s="15">
         <v>105</v>
@@ -5425,8 +5526,8 @@
       <c r="D125" s="6">
         <v>45</v>
       </c>
-      <c r="E125" s="17">
-        <v>120</v>
+      <c r="E125" s="38">
+        <v>2.94</v>
       </c>
       <c r="F125" s="6">
         <v>80</v>
@@ -5440,10 +5541,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C126" s="15">
         <v>105</v>
@@ -5451,8 +5552,8 @@
       <c r="D126" s="6">
         <v>51</v>
       </c>
-      <c r="E126" s="17">
-        <v>104</v>
+      <c r="E126" s="38">
+        <v>2.94</v>
       </c>
       <c r="F126" s="6">
         <v>80</v>
@@ -5466,10 +5567,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C127" s="15">
         <v>105</v>
@@ -5477,8 +5578,8 @@
       <c r="D127" s="6">
         <v>47</v>
       </c>
-      <c r="E127" s="17">
-        <v>155</v>
+      <c r="E127" s="38">
+        <v>2.94</v>
       </c>
       <c r="F127" s="6">
         <v>80</v>
@@ -5492,10 +5593,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C128" s="15">
         <v>105</v>
@@ -5503,8 +5604,8 @@
       <c r="D128" s="6">
         <v>45</v>
       </c>
-      <c r="E128" s="17">
-        <v>155</v>
+      <c r="E128" s="38">
+        <v>2.94</v>
       </c>
       <c r="F128" s="6">
         <v>80</v>
@@ -5518,10 +5619,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C129" s="15">
         <v>105</v>
@@ -5529,8 +5630,8 @@
       <c r="D129" s="6">
         <v>43</v>
       </c>
-      <c r="E129" s="17">
-        <v>160</v>
+      <c r="E129" s="38">
+        <v>2.94</v>
       </c>
       <c r="F129" s="6">
         <v>100</v>
@@ -5544,10 +5645,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C130" s="15">
         <v>105</v>
@@ -5555,8 +5656,8 @@
       <c r="D130" s="6">
         <v>39</v>
       </c>
-      <c r="E130" s="17">
-        <v>155</v>
+      <c r="E130" s="38">
+        <v>2.94</v>
       </c>
       <c r="F130" s="6">
         <v>100</v>
@@ -5570,10 +5671,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C131" s="15">
         <v>105</v>
@@ -5581,8 +5682,8 @@
       <c r="D131" s="6">
         <v>39</v>
       </c>
-      <c r="E131" s="17">
-        <v>157</v>
+      <c r="E131" s="38">
+        <v>2.94</v>
       </c>
       <c r="F131" s="6">
         <v>100</v>
@@ -5596,10 +5697,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C132" s="15">
         <v>105</v>
@@ -5607,8 +5708,8 @@
       <c r="D132" s="6">
         <v>37</v>
       </c>
-      <c r="E132" s="17">
-        <v>160</v>
+      <c r="E132" s="38">
+        <v>2.94</v>
       </c>
       <c r="F132" s="6">
         <v>100</v>
@@ -5622,10 +5723,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C133" s="15">
         <v>105</v>
@@ -5633,8 +5734,8 @@
       <c r="D133" s="6">
         <v>36</v>
       </c>
-      <c r="E133" s="17">
-        <v>160</v>
+      <c r="E133" s="38">
+        <v>2.94</v>
       </c>
       <c r="F133" s="6">
         <v>100</v>
@@ -5648,10 +5749,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C134" s="15">
         <v>105</v>
@@ -5659,8 +5760,8 @@
       <c r="D134" s="6">
         <v>35</v>
       </c>
-      <c r="E134" s="17">
-        <v>160</v>
+      <c r="E134" s="38">
+        <v>2.94</v>
       </c>
       <c r="F134" s="6">
         <v>120</v>
@@ -5674,10 +5775,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C135" s="15">
         <v>105</v>
@@ -5685,8 +5786,8 @@
       <c r="D135" s="6">
         <v>33</v>
       </c>
-      <c r="E135" s="17">
-        <v>160</v>
+      <c r="E135" s="38">
+        <v>2.94</v>
       </c>
       <c r="F135" s="6">
         <v>120</v>
@@ -5700,10 +5801,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C136" s="15">
         <v>105</v>
@@ -5711,8 +5812,8 @@
       <c r="D136" s="6">
         <v>29</v>
       </c>
-      <c r="E136" s="17">
-        <v>153</v>
+      <c r="E136" s="38">
+        <v>2.94</v>
       </c>
       <c r="F136" s="6">
         <v>120</v>
@@ -5726,10 +5827,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C137" s="15">
         <v>105</v>
@@ -5737,8 +5838,8 @@
       <c r="D137" s="6">
         <v>25</v>
       </c>
-      <c r="E137" s="17">
-        <v>148</v>
+      <c r="E137" s="38">
+        <v>2.94</v>
       </c>
       <c r="F137" s="6">
         <v>140</v>
@@ -5755,7 +5856,7 @@
         <v>345</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C138" s="15">
         <v>40</v>
@@ -5763,8 +5864,8 @@
       <c r="D138" s="6">
         <v>62</v>
       </c>
-      <c r="E138" s="17">
-        <v>104</v>
+      <c r="E138" s="38">
+        <v>2.88</v>
       </c>
       <c r="F138" s="6">
         <v>100</v>
@@ -5778,10 +5879,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C139" s="15">
         <v>40</v>
@@ -5789,8 +5890,8 @@
       <c r="D139" s="6">
         <v>62</v>
       </c>
-      <c r="E139" s="17">
-        <v>107</v>
+      <c r="E139" s="38">
+        <v>2.88</v>
       </c>
       <c r="F139" s="6">
         <v>100</v>
@@ -5807,7 +5908,7 @@
         <v>380</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C140" s="15">
         <v>40</v>
@@ -5815,8 +5916,8 @@
       <c r="D140" s="6">
         <v>59</v>
       </c>
-      <c r="E140" s="17">
-        <v>108</v>
+      <c r="E140" s="38">
+        <v>2.88</v>
       </c>
       <c r="F140" s="6">
         <v>120</v>
@@ -5833,7 +5934,7 @@
         <v>385</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C141" s="15">
         <v>40</v>
@@ -5841,8 +5942,8 @@
       <c r="D141" s="6">
         <v>59</v>
       </c>
-      <c r="E141" s="17">
-        <v>111</v>
+      <c r="E141" s="38">
+        <v>2.88</v>
       </c>
       <c r="F141" s="6">
         <v>120</v>
@@ -5856,10 +5957,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C142" s="15">
         <v>40</v>
@@ -5867,8 +5968,8 @@
       <c r="D142" s="6">
         <v>63</v>
       </c>
-      <c r="E142" s="17">
-        <v>126</v>
+      <c r="E142" s="38">
+        <v>2.88</v>
       </c>
       <c r="F142" s="6">
         <v>120</v>
@@ -5885,7 +5986,7 @@
         <v>445</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C143" s="15">
         <v>40</v>
@@ -5893,8 +5994,8 @@
       <c r="D143" s="6">
         <v>58</v>
       </c>
-      <c r="E143" s="17">
-        <v>122</v>
+      <c r="E143" s="38">
+        <v>2.88</v>
       </c>
       <c r="F143" s="6">
         <v>120</v>
@@ -5911,7 +6012,7 @@
         <v>450</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C144" s="15">
         <v>40</v>
@@ -5919,8 +6020,8 @@
       <c r="D144" s="6">
         <v>58</v>
       </c>
-      <c r="E144" s="17">
-        <v>125</v>
+      <c r="E144" s="38">
+        <v>2.88</v>
       </c>
       <c r="F144" s="6">
         <v>120</v>
@@ -5937,7 +6038,7 @@
         <v>455</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C145" s="15">
         <v>40</v>
@@ -5945,8 +6046,8 @@
       <c r="D145" s="6">
         <v>58</v>
       </c>
-      <c r="E145" s="17">
-        <v>128</v>
+      <c r="E145" s="38">
+        <v>2.88</v>
       </c>
       <c r="F145" s="6">
         <v>120</v>
@@ -5960,10 +6061,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C146" s="15">
         <v>40</v>
@@ -5971,8 +6072,8 @@
       <c r="D146" s="6">
         <v>56</v>
       </c>
-      <c r="E146" s="17">
-        <v>130</v>
+      <c r="E146" s="38">
+        <v>2.88</v>
       </c>
       <c r="F146" s="6">
         <v>140</v>
@@ -5986,10 +6087,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C147" s="15">
         <v>40</v>
@@ -5997,8 +6098,8 @@
       <c r="D147" s="6">
         <v>54</v>
       </c>
-      <c r="E147" s="17">
-        <v>130</v>
+      <c r="E147" s="38">
+        <v>2.88</v>
       </c>
       <c r="F147" s="6">
         <v>140</v>
@@ -6015,7 +6116,7 @@
         <v>545</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C148" s="15">
         <v>40</v>
@@ -6023,8 +6124,8 @@
       <c r="D148" s="6">
         <v>50</v>
       </c>
-      <c r="E148" s="17">
-        <v>133</v>
+      <c r="E148" s="38">
+        <v>2.88</v>
       </c>
       <c r="F148" s="6">
         <v>140</v>
@@ -6041,7 +6142,7 @@
         <v>445</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C149" s="15">
         <v>50</v>
@@ -6049,8 +6150,8 @@
       <c r="D149" s="6">
         <v>59</v>
       </c>
-      <c r="E149" s="17">
-        <v>159</v>
+      <c r="E149" s="38">
+        <v>2.82</v>
       </c>
       <c r="F149" s="6">
         <v>120</v>
@@ -6064,10 +6165,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C150" s="15">
         <v>50</v>
@@ -6075,8 +6176,8 @@
       <c r="D150" s="6">
         <v>50</v>
       </c>
-      <c r="E150" s="17">
-        <v>156</v>
+      <c r="E150" s="38">
+        <v>2.82</v>
       </c>
       <c r="F150" s="6">
         <v>140</v>
@@ -6090,10 +6191,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C151" s="15">
         <v>70</v>
@@ -6101,8 +6202,8 @@
       <c r="D151" s="6">
         <v>24</v>
       </c>
-      <c r="E151" s="17">
-        <v>108</v>
+      <c r="E151" s="38">
+        <v>3.22</v>
       </c>
       <c r="F151" s="6">
         <v>180</v>
@@ -6116,10 +6217,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C152" s="15">
         <v>90</v>
@@ -6127,8 +6228,8 @@
       <c r="D152" s="6">
         <v>26</v>
       </c>
-      <c r="E152" s="17">
-        <v>151</v>
+      <c r="E152" s="38">
+        <v>3.22</v>
       </c>
       <c r="F152" s="6">
         <v>180</v>
@@ -6142,10 +6243,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C153" s="15">
         <v>110</v>
@@ -6153,8 +6254,8 @@
       <c r="D153" s="6">
         <v>24</v>
       </c>
-      <c r="E153" s="17">
-        <v>146</v>
+      <c r="E153" s="38">
+        <v>3.22</v>
       </c>
       <c r="F153" s="6">
         <v>140</v>
@@ -6168,10 +6269,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C154" s="15">
         <v>110</v>
@@ -6179,8 +6280,8 @@
       <c r="D154" s="6">
         <v>24</v>
       </c>
-      <c r="E154" s="17">
-        <v>157</v>
+      <c r="E154" s="38">
+        <v>3.22</v>
       </c>
       <c r="F154" s="6">
         <v>140</v>
@@ -6193,43 +6294,44 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="37" t="s">
-        <v>142</v>
+      <c r="A155" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C155" s="15">
         <v>110</v>
       </c>
-      <c r="D155" s="37">
+      <c r="D155" s="36">
         <v>22</v>
       </c>
       <c r="E155" s="38">
-        <v>158</v>
-      </c>
-      <c r="F155" s="37">
+        <v>3.22</v>
+      </c>
+      <c r="F155" s="36">
         <v>180</v>
       </c>
-      <c r="G155" s="37">
+      <c r="G155" s="36">
         <v>145.5</v>
       </c>
-      <c r="H155" s="37">
+      <c r="H155" s="36">
         <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="39"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6237,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C64C37-9565-4499-8ED5-6B21A8542510}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6252,259 +6354,259 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="28">
+        <v>140100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="29">
+        <v>560101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="29">
+        <v>180100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="29">
+        <v>390102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="29">
+        <v>630200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="29">
+        <v>990200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="29">
+        <v>390200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="29">
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="29">
-        <v>140100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="B10" s="29">
+        <v>970400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="30">
-        <v>560101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B11" s="29">
+        <v>260401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="30">
-        <v>180100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="B12" s="29">
+        <v>300401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="30">
-        <v>390102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="B13" s="29">
+        <v>170501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="30">
-        <v>630200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="B14" s="29">
+        <v>301300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="30">
-        <v>990200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="B15" s="29">
+        <v>150600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="30">
-        <v>390200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="B16" s="29">
+        <v>140600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="30">
-        <v>100200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="B17" s="29">
+        <v>900700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="30">
-        <v>970400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="B18" s="29">
+        <v>211200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="30">
-        <v>260401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="B19" s="29">
+        <v>631300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="30">
-        <v>300401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="30">
-        <v>170501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="B21" s="29">
+        <v>201300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="30">
-        <v>301300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="B22" s="29">
+        <v>352301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="30">
-        <v>150600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="B23" s="29">
+        <v>841501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="30">
-        <v>140600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="B24" s="29">
+        <v>381301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="30">
-        <v>900700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="B25" s="29">
+        <v>392200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="30">
-        <v>211200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="B26" s="29">
+        <v>821600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="30">
-        <v>631300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="B27" s="29">
+        <v>900200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="B28" s="29">
+        <v>481900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="30">
-        <v>201300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="B29" s="29">
+        <v>991900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="30">
-        <v>352301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="B30" s="29">
+        <v>392001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="30">
-        <v>841501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="B31" s="29">
+        <v>172001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="30">
-        <v>381301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="30">
-        <v>392200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="30">
-        <v>821600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="30">
-        <v>900200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="30">
-        <v>481900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="30">
-        <v>991900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="30">
-        <v>392001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="30">
-        <v>172001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="31">
+      <c r="B32" s="30">
         <v>102201</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6513,2559 +6615,3143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA776DB7-E681-4B90-8897-81C1B21273F9}">
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3030214</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>300</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>11990</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="D2" s="39">
+        <v>636</v>
+      </c>
+      <c r="E2" s="39">
+        <v>148</v>
+      </c>
+      <c r="F2" s="39">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="22">
         <v>42650.895833333336</v>
       </c>
-      <c r="F2" s="16">
+      <c r="J2" s="16">
         <v>5.5</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K2" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3030215</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>400</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>97920</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="22">
-        <f>F2</f>
+      <c r="D3" s="40">
+        <v>3108</v>
+      </c>
+      <c r="E3" s="39">
+        <v>377</v>
+      </c>
+      <c r="F3" s="39">
+        <v>96</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="22">
+        <f>J2</f>
         <v>5.5</v>
       </c>
-      <c r="F3" s="17">
+      <c r="J3" s="17">
         <v>5.8</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K3" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3030216</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>450</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>104890</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ref="E4:E59" si="0">F3</f>
+      <c r="D4" s="40">
+        <v>3699</v>
+      </c>
+      <c r="E4" s="39">
+        <v>237</v>
+      </c>
+      <c r="F4" s="39">
+        <v>103</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I59" si="0">J3</f>
         <v>5.8</v>
       </c>
-      <c r="F4" s="17">
+      <c r="J4" s="17">
         <v>6.1</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K4" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3030217</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>500</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>53700</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="40">
+        <v>2167</v>
+      </c>
+      <c r="E5" s="39">
+        <v>932</v>
+      </c>
+      <c r="F5" s="39">
+        <v>54</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="J5" s="17">
         <v>6.4</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K5" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3030218</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>400</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>13940</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="40">
+        <v>1033</v>
+      </c>
+      <c r="E6" s="39">
+        <v>802</v>
+      </c>
+      <c r="F6" s="39">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="22">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="J6" s="17">
         <v>6.7</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K6" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3030219</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>350</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>12120</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="39">
+        <v>840</v>
+      </c>
+      <c r="E7" s="39">
+        <v>57</v>
+      </c>
+      <c r="F7" s="39">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="J7" s="17">
         <v>7</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K7" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3030220</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>250</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>47600</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="40">
+        <v>1055</v>
+      </c>
+      <c r="E8" s="39">
+        <v>68</v>
+      </c>
+      <c r="F8" s="39">
+        <v>47</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F8" s="17">
+      <c r="J8" s="17">
         <v>7.8</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K8" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3030221</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>300</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>49980</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="40">
+        <v>1289</v>
+      </c>
+      <c r="E9" s="39">
+        <v>65</v>
+      </c>
+      <c r="F9" s="39">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="F9" s="17">
+      <c r="J9" s="17">
         <v>8.1</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K9" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3030222</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>500</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>48090</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="40">
+        <v>2107</v>
+      </c>
+      <c r="E10" s="39">
+        <v>359</v>
+      </c>
+      <c r="F10" s="39">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
-      <c r="F10" s="17">
+      <c r="J10" s="17">
         <v>7.9</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K10" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3030223</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>230</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>107060</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="40">
+        <v>1968</v>
+      </c>
+      <c r="E11" s="39">
+        <v>744</v>
+      </c>
+      <c r="F11" s="39">
+        <v>53</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="F11" s="17">
+      <c r="J11" s="17">
         <v>9</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K11" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3030224</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>300</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>24480</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="39">
+        <v>582</v>
+      </c>
+      <c r="E12" s="39">
+        <v>241</v>
+      </c>
+      <c r="F12" s="39">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="17">
+      <c r="J12" s="17">
         <v>9.5</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K12" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3030225</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>350</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>6120</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="39">
+        <v>503</v>
+      </c>
+      <c r="E13" s="39">
+        <v>65</v>
+      </c>
+      <c r="F13" s="39">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="22">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F13" s="17">
+      <c r="J13" s="17">
         <v>9.5</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K13" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3030226</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>400</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>60580</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="40">
+        <v>1905</v>
+      </c>
+      <c r="E14" s="39">
+        <v>150</v>
+      </c>
+      <c r="F14" s="39">
+        <v>60</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="22">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F14" s="17">
+      <c r="J14" s="17">
         <v>10.7</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K14" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3030227</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>450</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>24480</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="D15" s="39">
+        <v>865</v>
+      </c>
+      <c r="E15" s="39">
+        <v>273</v>
+      </c>
+      <c r="F15" s="39">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="22">
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
-      <c r="F15" s="17">
+      <c r="J15" s="17">
         <v>12.2</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K15" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3030228</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>500</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>11520</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="39">
+        <v>460</v>
+      </c>
+      <c r="E16" s="39">
+        <v>93</v>
+      </c>
+      <c r="F16" s="39">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
-      <c r="F16" s="17">
+      <c r="J16" s="17">
         <v>12.2</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K16" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3030229</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>550</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>24400</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="D17" s="40">
+        <v>1062</v>
+      </c>
+      <c r="E17" s="39">
+        <v>231</v>
+      </c>
+      <c r="F17" s="39">
+        <v>24</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="J17" s="17">
         <v>12.5</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K17" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3030230</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>600</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>22440</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="D18" s="40">
+        <v>1063</v>
+      </c>
+      <c r="E18" s="39">
+        <v>140</v>
+      </c>
+      <c r="F18" s="39">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="F18" s="17">
+      <c r="J18" s="17">
         <v>12.7</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K18" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3030231</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>500</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>24240</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="D19" s="39">
+        <v>991</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
-      <c r="F19" s="17">
+      <c r="J19" s="17">
         <v>13</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K19" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3030232</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>300</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>96630</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="D20" s="40">
+        <v>2568</v>
+      </c>
+      <c r="E20" s="39">
+        <v>171</v>
+      </c>
+      <c r="F20" s="39">
+        <v>95</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F20" s="17">
+      <c r="J20" s="17">
         <v>13.6</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K20" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3030233</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>200</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>12390</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D21" s="39">
+        <v>543</v>
+      </c>
+      <c r="E21" s="39">
+        <v>140</v>
+      </c>
+      <c r="F21" s="39">
+        <v>6</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="22">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="F21" s="17">
+      <c r="J21" s="17">
         <v>14.6</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K21" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3030234</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>250</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>23710</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D22" s="39">
+        <v>476</v>
+      </c>
+      <c r="E22" s="39">
+        <v>222</v>
+      </c>
+      <c r="F22" s="39">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="22">
         <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
-      <c r="F22" s="17">
+      <c r="J22" s="17">
         <v>14.5</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K22" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3030235</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>250</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>48800</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="D23" s="40">
+        <v>2183</v>
+      </c>
+      <c r="E23" s="39">
+        <v>643</v>
+      </c>
+      <c r="F23" s="39">
+        <v>40</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="22">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="J23" s="17">
         <v>15.1</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K23" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3030236</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>280</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>220110</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="D24" s="40">
+        <v>10838</v>
+      </c>
+      <c r="E24" s="40">
+        <v>1501</v>
+      </c>
+      <c r="F24" s="39">
+        <v>181</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="22">
         <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-      <c r="F24" s="17">
+      <c r="J24" s="17">
         <v>6.6</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K24" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3030237</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>325</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>129215</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="D25" s="40">
+        <v>9278</v>
+      </c>
+      <c r="E25" s="39">
+        <v>793</v>
+      </c>
+      <c r="F25" s="39">
+        <v>127</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="22">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="F25" s="17">
+      <c r="J25" s="17">
         <v>7</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K25" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3030238</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>230</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>24480</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="D26" s="39">
+        <v>449</v>
+      </c>
+      <c r="E26" s="39">
+        <v>638</v>
+      </c>
+      <c r="F26" s="39">
+        <v>24</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F26" s="17">
+      <c r="J26" s="17">
         <v>7.2</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K26" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3030239</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>300</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>18360</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="D27" s="39">
+        <v>443</v>
+      </c>
+      <c r="E27" s="39">
+        <v>316</v>
+      </c>
+      <c r="F27" s="39">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="22">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F27" s="17">
+      <c r="J27" s="17">
         <v>8.4</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K27" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3030240</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>500</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>57210</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="D28" s="40">
+        <v>2834</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1036</v>
+      </c>
+      <c r="F28" s="39">
+        <v>57</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="22">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="F28" s="17">
+      <c r="J28" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3030241</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>230</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>64270</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="D29" s="40">
+        <v>1159</v>
+      </c>
+      <c r="E29" s="39">
+        <v>125</v>
+      </c>
+      <c r="F29" s="39">
+        <v>32</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F29" s="17">
+      <c r="J29" s="17">
         <v>8.9</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K29" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3030242</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>300</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>13260</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="22">
+      <c r="D30" s="39">
+        <v>649</v>
+      </c>
+      <c r="E30" s="39">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="22">
         <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
-      <c r="F30" s="17">
+      <c r="J30" s="17">
         <v>9</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K30" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3030243</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>350</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>17280</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="22">
+      <c r="D31" s="40">
+        <v>1049</v>
+      </c>
+      <c r="E31" s="39">
+        <v>248</v>
+      </c>
+      <c r="F31" s="39">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F31" s="17">
+      <c r="J31" s="17">
         <v>10.199999999999999</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K31" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3030244</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>400</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>5760</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="22">
+      <c r="D32" s="39">
+        <v>403</v>
+      </c>
+      <c r="E32" s="39">
+        <v>28</v>
+      </c>
+      <c r="F32" s="39">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="22">
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="F32" s="17">
+      <c r="J32" s="17">
         <v>10.5</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K32" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3030245</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>500</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>48960</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="D33" s="40">
+        <v>1922</v>
+      </c>
+      <c r="E33" s="39">
+        <v>71</v>
+      </c>
+      <c r="F33" s="39">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="22">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="F33" s="17">
+      <c r="J33" s="17">
         <v>9.9</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K33" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3030246</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>400</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>85330</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="40">
+        <v>2702</v>
+      </c>
+      <c r="E34" s="39">
+        <v>184</v>
+      </c>
+      <c r="F34" s="39">
+        <v>84</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="22">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F34" s="17">
+      <c r="J34" s="17">
         <v>9.9</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K34" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3030247</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>450</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>79560</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="D35" s="40">
+        <v>2857</v>
+      </c>
+      <c r="E35" s="39">
+        <v>163</v>
+      </c>
+      <c r="F35" s="39">
+        <v>78</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="22">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F35" s="17">
+      <c r="J35" s="17">
         <v>12.2</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K35" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3030248</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>500</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>47940</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="D36" s="40">
+        <v>1870</v>
+      </c>
+      <c r="E36" s="39">
+        <v>98</v>
+      </c>
+      <c r="F36" s="39">
+        <v>47</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="22">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
-      <c r="F36" s="17">
+      <c r="J36" s="17">
         <v>13.4</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K36" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3030249</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>550</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>24480</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="D37" s="40">
+        <v>1125</v>
+      </c>
+      <c r="E37" s="39">
+        <v>190</v>
+      </c>
+      <c r="F37" s="39">
+        <v>24</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="22">
         <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
-      <c r="F37" s="17">
+      <c r="J37" s="17">
         <v>13.6</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K37" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3030250</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>600</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>48960</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="D38" s="40">
+        <v>2316</v>
+      </c>
+      <c r="E38" s="39">
+        <v>189</v>
+      </c>
+      <c r="F38" s="39">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="22">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="F38" s="17">
+      <c r="J38" s="17">
         <v>13.3</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K38" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3030251</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>700</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>48960</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="22">
+      <c r="D39" s="40">
+        <v>2747</v>
+      </c>
+      <c r="E39" s="39">
+        <v>249</v>
+      </c>
+      <c r="F39" s="39">
+        <v>48</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="22">
         <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
-      <c r="F39" s="17">
+      <c r="J39" s="17">
         <v>13.4</v>
       </c>
-      <c r="G39" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K39" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3030252</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>300</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>24240</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="22">
+      <c r="D40" s="39">
+        <v>595</v>
+      </c>
+      <c r="E40" s="39">
+        <v>116</v>
+      </c>
+      <c r="F40" s="39">
+        <v>12</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="22">
         <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
-      <c r="F40" s="17">
+      <c r="J40" s="17">
         <v>13.7</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K40" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3030253</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <v>350</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <v>25870</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="D41" s="39">
+        <v>729</v>
+      </c>
+      <c r="E41" s="39">
+        <v>403</v>
+      </c>
+      <c r="F41" s="39">
+        <v>26</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="22">
         <f t="shared" si="0"/>
         <v>13.7</v>
       </c>
-      <c r="F41" s="17">
+      <c r="J41" s="17">
         <v>14.6</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K41" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3030254</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <v>400</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <v>48640</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="22">
+      <c r="D42" s="40">
+        <v>1539</v>
+      </c>
+      <c r="E42" s="39">
+        <v>189</v>
+      </c>
+      <c r="F42" s="39">
+        <v>48</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="22">
         <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
-      <c r="F42" s="17">
+      <c r="J42" s="17">
         <v>15.8</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K42" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3030255</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>450</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <v>48960</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="22">
+      <c r="D43" s="40">
+        <v>1745</v>
+      </c>
+      <c r="E43" s="39">
+        <v>479</v>
+      </c>
+      <c r="F43" s="39">
+        <v>48</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="22">
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="F43" s="17">
+      <c r="J43" s="17">
         <v>15.5</v>
       </c>
-      <c r="G43" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K43" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3030256</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <v>500</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="23">
         <v>49770</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="22">
+      <c r="D44" s="40">
+        <v>1952</v>
+      </c>
+      <c r="E44" s="39">
+        <v>870</v>
+      </c>
+      <c r="F44" s="39">
+        <v>49</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="22">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="F44" s="17">
+      <c r="J44" s="17">
         <v>15.8</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K44" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3030257</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>600</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <v>48960</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="22">
+      <c r="D45" s="40">
+        <v>2341</v>
+      </c>
+      <c r="E45" s="39">
+        <v>139</v>
+      </c>
+      <c r="F45" s="39">
+        <v>48</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="22">
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="F45" s="17">
+      <c r="J45" s="17">
         <v>7</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K45" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3030258</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <v>650</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <v>11735</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="22">
+      <c r="D46" s="39">
+        <v>606</v>
+      </c>
+      <c r="E46" s="39">
+        <v>173</v>
+      </c>
+      <c r="F46" s="39">
+        <v>12</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F46" s="17">
+      <c r="J46" s="17">
         <v>8.9</v>
       </c>
-      <c r="G46" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K46" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3030259</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>700</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <v>48960</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="22">
+      <c r="D47" s="40">
+        <v>2743</v>
+      </c>
+      <c r="E47" s="39">
+        <v>72</v>
+      </c>
+      <c r="F47" s="39">
+        <v>48</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="22">
         <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
-      <c r="F47" s="17">
+      <c r="J47" s="17">
         <v>10.5</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K47" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3030260</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <v>400</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <v>5760</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="22">
+      <c r="D48" s="39">
+        <v>407</v>
+      </c>
+      <c r="E48" s="39">
+        <v>497</v>
+      </c>
+      <c r="F48" s="39">
+        <v>8</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="22">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="F48" s="17">
+      <c r="J48" s="17">
         <v>9.9</v>
       </c>
-      <c r="G48" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K48" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3030261</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <v>450</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <v>64640</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="22">
+      <c r="D49" s="40">
+        <v>2913</v>
+      </c>
+      <c r="E49" s="39">
+        <v>125</v>
+      </c>
+      <c r="F49" s="39">
+        <v>32</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="22">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F49" s="17">
+      <c r="J49" s="17">
         <v>13.6</v>
       </c>
-      <c r="G49" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K49" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3030262</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>250</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <v>24400</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="D50" s="40">
+        <v>1087</v>
+      </c>
+      <c r="E50" s="39">
+        <v>58</v>
+      </c>
+      <c r="F50" s="39">
+        <v>20</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="22">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="F50" s="17">
+      <c r="J50" s="17">
         <v>6.5</v>
       </c>
-      <c r="G50" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K50" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3030263</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <v>280</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <v>219525</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="22">
+      <c r="D51" s="40">
+        <v>10862</v>
+      </c>
+      <c r="E51" s="40">
+        <v>1738</v>
+      </c>
+      <c r="F51" s="39">
+        <v>181</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="22">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F51" s="17">
+      <c r="J51" s="17">
         <v>6.5</v>
       </c>
-      <c r="G51" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K51" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3030264</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <v>325</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <v>65280</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="22">
+      <c r="D52" s="40">
+        <v>4681</v>
+      </c>
+      <c r="E52" s="39">
+        <v>234</v>
+      </c>
+      <c r="F52" s="39">
+        <v>64</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="22">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F52" s="17">
+      <c r="J52" s="17">
         <v>6.8</v>
       </c>
-      <c r="G52" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K52" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3030265</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>300</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <v>24240</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="D53" s="39">
+        <v>595</v>
+      </c>
+      <c r="E53" s="39">
+        <v>29</v>
+      </c>
+      <c r="F53" s="39">
+        <v>12</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="22">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="F53" s="17">
+      <c r="J53" s="17">
         <v>7.6</v>
       </c>
-      <c r="G53" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K53" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3030266</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <v>400</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <v>11520</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="D54" s="39">
+        <v>814</v>
+      </c>
+      <c r="E54" s="39">
+        <v>0</v>
+      </c>
+      <c r="F54" s="39">
+        <v>16</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="22">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F54" s="17">
+      <c r="J54" s="17">
         <v>8</v>
       </c>
-      <c r="G54" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K54" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3030267</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <v>450</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>5760</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="D55" s="39">
+        <v>460</v>
+      </c>
+      <c r="E55" s="39">
+        <v>186</v>
+      </c>
+      <c r="F55" s="39">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F55" s="17">
+      <c r="J55" s="17">
         <v>8.5</v>
       </c>
-      <c r="G55" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K55" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3030268</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>500</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>48780</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="D56" s="40">
+        <v>1942</v>
+      </c>
+      <c r="E56" s="39">
+        <v>422</v>
+      </c>
+      <c r="F56" s="39">
+        <v>48</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="22">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="F56" s="17">
+      <c r="J56" s="17">
         <v>10.1</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3030269</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <v>700</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>48960</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="D57" s="40">
+        <v>2703</v>
+      </c>
+      <c r="E57" s="39">
+        <v>304</v>
+      </c>
+      <c r="F57" s="39">
+        <v>48</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="22">
         <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
-      <c r="F57" s="17">
+      <c r="J57" s="17">
         <v>11.7</v>
       </c>
-      <c r="G57" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K57" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3030270</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <v>350</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>95850</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="D58" s="40">
+        <v>2934</v>
+      </c>
+      <c r="E58" s="39">
+        <v>159</v>
+      </c>
+      <c r="F58" s="39">
+        <v>94</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="22">
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
-      <c r="F58" s="17">
+      <c r="J58" s="17">
         <v>13.2</v>
       </c>
-      <c r="G58" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K58" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3030271</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="32">
         <v>250</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <v>96420</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="D59" s="40">
+        <v>2428</v>
+      </c>
+      <c r="E59" s="39">
+        <v>243</v>
+      </c>
+      <c r="F59" s="39">
+        <v>48</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="22">
         <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="F59" s="17">
+      <c r="J59" s="17">
         <v>14.4</v>
       </c>
-      <c r="G59" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="34"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
+      <c r="K59" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="33"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="40"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
       <c r="C61" s="19"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="33"/>
+      <c r="F61" s="39"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="32"/>
       <c r="C62" s="19"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="33"/>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
       <c r="C63" s="19"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="28"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="33"/>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="32"/>
       <c r="C64" s="19"/>
       <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="33"/>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
       <c r="C65" s="19"/>
       <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="33"/>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="32"/>
       <c r="C66" s="19"/>
       <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="33"/>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
       <c r="C67" s="19"/>
       <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="33"/>
+      <c r="F67" s="39"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="32"/>
       <c r="C68" s="19"/>
       <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="33"/>
+      <c r="F68" s="39"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="32"/>
       <c r="C69" s="19"/>
       <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="33"/>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="32"/>
       <c r="C70" s="19"/>
       <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="33"/>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="32"/>
       <c r="C71" s="19"/>
       <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="33"/>
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="32"/>
       <c r="C72" s="19"/>
       <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="33"/>
+      <c r="F72" s="39"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="32"/>
       <c r="C73" s="19"/>
       <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="33"/>
+      <c r="F73" s="39"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="32"/>
       <c r="C74" s="19"/>
       <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="33"/>
+      <c r="F74" s="39"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="32"/>
       <c r="C75" s="19"/>
       <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="33"/>
+      <c r="F75" s="39"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="32"/>
       <c r="C76" s="19"/>
       <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="33"/>
+      <c r="F76" s="39"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="32"/>
       <c r="C77" s="19"/>
       <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="33"/>
+      <c r="F77" s="39"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="32"/>
       <c r="C78" s="19"/>
       <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="24"/>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="23"/>
       <c r="C79" s="19"/>
       <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="23"/>
       <c r="C80" s="19"/>
       <c r="E80" s="17"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="23"/>
       <c r="C81" s="19"/>
       <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
+      <c r="F81" s="39"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="23"/>
       <c r="C82" s="19"/>
       <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
+      <c r="F82" s="39"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="23"/>
       <c r="C83" s="19"/>
       <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
+      <c r="F83" s="39"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="23"/>
       <c r="C84" s="19"/>
       <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="23"/>
       <c r="C85" s="19"/>
       <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="23"/>
       <c r="C86" s="19"/>
       <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
+      <c r="F86" s="39"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="23"/>
       <c r="C87" s="19"/>
       <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="23"/>
       <c r="C88" s="19"/>
       <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
+      <c r="F88" s="39"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="23"/>
       <c r="C89" s="19"/>
       <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
+      <c r="F89" s="39"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="23"/>
       <c r="C90" s="19"/>
       <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
+      <c r="F90" s="39"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="23"/>
       <c r="C91" s="19"/>
       <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="23"/>
       <c r="C92" s="19"/>
       <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
+      <c r="F92" s="39"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="23"/>
       <c r="C93" s="19"/>
       <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="23"/>
       <c r="C94" s="19"/>
       <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
+      <c r="F94" s="39"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="23"/>
       <c r="C95" s="19"/>
       <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
+      <c r="F95" s="39"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="23"/>
       <c r="C96" s="19"/>
       <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="24"/>
+      <c r="F96" s="39"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="23"/>
       <c r="C97" s="19"/>
       <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
+      <c r="F97" s="39"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="23"/>
       <c r="C98" s="19"/>
       <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
+      <c r="F98" s="39"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="23"/>
       <c r="C99" s="19"/>
       <c r="E99" s="17"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="24"/>
+      <c r="F99" s="39"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="23"/>
       <c r="C100" s="19"/>
       <c r="E100" s="17"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="24"/>
+      <c r="F100" s="39"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="23"/>
       <c r="C101" s="19"/>
       <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="24"/>
+      <c r="F101" s="39"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="23"/>
       <c r="C102" s="19"/>
       <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="24"/>
+      <c r="F102" s="39"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="23"/>
       <c r="C103" s="19"/>
       <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="24"/>
+      <c r="F103" s="39"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="23"/>
       <c r="C104" s="19"/>
       <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
+      <c r="F104" s="39"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="23"/>
       <c r="C105" s="19"/>
       <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="24"/>
+      <c r="F105" s="39"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="23"/>
       <c r="C106" s="19"/>
       <c r="E106" s="17"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="24"/>
+      <c r="F106" s="39"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="23"/>
       <c r="C107" s="19"/>
       <c r="E107" s="17"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="24"/>
+      <c r="F107" s="39"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="23"/>
       <c r="C108" s="19"/>
       <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="24"/>
+      <c r="F108" s="39"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="23"/>
       <c r="C109" s="19"/>
       <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="24"/>
+      <c r="F109" s="39"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="23"/>
       <c r="C110" s="19"/>
       <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
+      <c r="F110" s="39"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="23"/>
       <c r="C111" s="19"/>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="23"/>
       <c r="C112" s="19"/>
       <c r="E112" s="17"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="24"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="19"/>
       <c r="E113" s="17"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="24"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="19"/>
       <c r="E114" s="17"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="24"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="19"/>
       <c r="E115" s="17"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="24"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="19"/>
       <c r="E116" s="17"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="24"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="19"/>
       <c r="E117" s="17"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="24"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="19"/>
       <c r="E118" s="17"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="24"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="19"/>
       <c r="E119" s="17"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="24"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="19"/>
       <c r="E120" s="17"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="24"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="19"/>
       <c r="E121" s="17"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="24"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="19"/>
       <c r="E122" s="17"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="24"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="19"/>
       <c r="E123" s="17"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="19"/>
       <c r="E124" s="17"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="24"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="19"/>
       <c r="E125" s="17"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="24"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="19"/>
       <c r="E126" s="17"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="24"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="19"/>
       <c r="E127" s="17"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="24"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="19"/>
       <c r="E128" s="17"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="24"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="19"/>
       <c r="E129" s="17"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="24"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="19"/>
       <c r="E130" s="17"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="24"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="19"/>
       <c r="E131" s="17"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="24"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="19"/>
       <c r="E132" s="17"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="24"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="19"/>
       <c r="E133" s="17"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="24"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="19"/>
       <c r="E134" s="17"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="24"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="19"/>
       <c r="E135" s="17"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="24"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="19"/>
       <c r="E136" s="17"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="24"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="19"/>
       <c r="E137" s="17"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="24"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="19"/>
       <c r="E138" s="17"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="24"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="19"/>
       <c r="E139" s="17"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="24"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="19"/>
       <c r="E140" s="17"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="24"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="19"/>
       <c r="E141" s="17"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="24"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="19"/>
       <c r="E142" s="17"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="24"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="19"/>
       <c r="E143" s="17"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="24"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="19"/>
       <c r="E144" s="17"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="24"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="19"/>
       <c r="E145" s="17"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="24"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="19"/>
       <c r="E146" s="17"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147" s="24"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="19"/>
       <c r="E147" s="17"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B148" s="24"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="19"/>
       <c r="E148" s="17"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="24"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="19"/>
       <c r="E149" s="17"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="24"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="19"/>
       <c r="E150" s="17"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="24"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="19"/>
       <c r="E151" s="17"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="24"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="19"/>
       <c r="E152" s="17"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="24"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="19"/>
       <c r="E153" s="17"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="24"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="19"/>
       <c r="E154" s="17"/>
     </row>
     <row r="155" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="24"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="19"/>
       <c r="E155" s="18"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="24"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="19"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="24"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="19"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="24"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="19"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="24"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="19"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="24"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="19"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="24"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="19"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="24"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="19"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="24"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="19"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="24"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="19"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="24"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="19"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="24"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="19"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="24"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="19"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="24"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="19"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="24"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="19"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="24"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="19"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="24"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="19"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="24"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="19"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="24"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="19"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="24"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="19"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" s="24"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="19"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="24"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="19"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="24"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="19"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="24"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="19"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="24"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="19"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="24"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="19"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181" s="24"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="19"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="24"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="19"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="24"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="19"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="24"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="19"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="24"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="19"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="24"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="20"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="24"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="20"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B188" s="24"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="19"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="24"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="19"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="24"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="19"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B191" s="24"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="19"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="24"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="19"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="24"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="19"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B194" s="24"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="19"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B195" s="24"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="19"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B196" s="24"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="19"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B197" s="24"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="19"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B198" s="24"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="19"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B199" s="24"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="19"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B200" s="24"/>
+      <c r="B200" s="23"/>
       <c r="C200" s="19"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B201" s="24"/>
+      <c r="B201" s="23"/>
       <c r="C201" s="19"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B202" s="24"/>
+      <c r="B202" s="23"/>
       <c r="C202" s="19"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B203" s="24"/>
+      <c r="B203" s="23"/>
       <c r="C203" s="19"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="24"/>
+      <c r="B204" s="23"/>
       <c r="C204" s="19"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B205" s="24"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="19"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="24"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="19"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B207" s="24"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="19"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B208" s="24"/>
+      <c r="B208" s="23"/>
       <c r="C208" s="19"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="24"/>
+      <c r="B209" s="23"/>
       <c r="C209" s="19"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="24"/>
+      <c r="B210" s="23"/>
       <c r="C210" s="19"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="24"/>
+      <c r="B211" s="23"/>
       <c r="C211" s="19"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="24"/>
+      <c r="B212" s="23"/>
       <c r="C212" s="19"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="24"/>
+      <c r="B213" s="23"/>
       <c r="C213" s="19"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214" s="24"/>
+      <c r="B214" s="23"/>
       <c r="C214" s="19"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="24"/>
+      <c r="B215" s="23"/>
       <c r="C215" s="19"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="24"/>
+      <c r="B216" s="23"/>
       <c r="C216" s="19"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="24"/>
+      <c r="B217" s="23"/>
       <c r="C217" s="19"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B218" s="24"/>
+      <c r="B218" s="23"/>
       <c r="C218" s="19"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B219" s="24"/>
+      <c r="B219" s="23"/>
       <c r="C219" s="19"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220" s="24"/>
+      <c r="B220" s="23"/>
       <c r="C220" s="19"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B221" s="24"/>
+      <c r="B221" s="23"/>
       <c r="C221" s="19"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B222" s="24"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="19"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B223" s="24"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="19"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B224" s="24"/>
+      <c r="B224" s="23"/>
       <c r="C224" s="19"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B225" s="24"/>
+      <c r="B225" s="23"/>
       <c r="C225" s="19"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B226" s="24"/>
+      <c r="B226" s="23"/>
       <c r="C226" s="19"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B227" s="24"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="19"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B228" s="24"/>
+      <c r="B228" s="23"/>
       <c r="C228" s="19"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B229" s="24"/>
+      <c r="B229" s="23"/>
       <c r="C229" s="19"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B230" s="24"/>
+      <c r="B230" s="23"/>
       <c r="C230" s="19"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B231" s="24"/>
+      <c r="B231" s="23"/>
       <c r="C231" s="19"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B232" s="24"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="19"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B233" s="24"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="19"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B234" s="24"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="19"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B235" s="24"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="19"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B236" s="24"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="19"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B237" s="24"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="19"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B238" s="24"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="19"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B239" s="24"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="19"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B240" s="24"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="19"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B241" s="24"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="19"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B242" s="24"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="19"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B243" s="24"/>
+      <c r="B243" s="23"/>
       <c r="C243" s="19"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B244" s="24"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="19"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B245" s="24"/>
+      <c r="B245" s="23"/>
       <c r="C245" s="19"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B246" s="24"/>
+      <c r="B246" s="23"/>
       <c r="C246" s="19"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B247" s="24"/>
+      <c r="B247" s="23"/>
       <c r="C247" s="19"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B248" s="24"/>
+      <c r="B248" s="23"/>
       <c r="C248" s="19"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B249" s="24"/>
+      <c r="B249" s="23"/>
       <c r="C249" s="19"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B250" s="24"/>
+      <c r="B250" s="23"/>
       <c r="C250" s="19"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B251" s="24"/>
+      <c r="B251" s="23"/>
       <c r="C251" s="19"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B252" s="24"/>
+      <c r="B252" s="23"/>
       <c r="C252" s="19"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="19"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="19"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="19"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B256" s="24"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="19"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B257" s="24"/>
+      <c r="B257" s="23"/>
       <c r="C257" s="19"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B258" s="24"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="21"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B259" s="24"/>
+      <c r="B259" s="23"/>
       <c r="C259" s="21"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B260" s="24"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="21"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="19"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="19"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="21"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="19"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="19"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="21"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="21"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="19"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="19"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="19"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="19"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="19"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="19"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="19"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="19"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B276" s="24"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="19"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B277" s="24"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="19"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="19"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B279" s="24"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="19"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B280" s="24"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="19"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B281" s="24"/>
+      <c r="B281" s="23"/>
       <c r="C281" s="19"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B282" s="24"/>
+      <c r="B282" s="23"/>
       <c r="C282" s="19"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B283" s="24"/>
+      <c r="B283" s="23"/>
       <c r="C283" s="19"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B284" s="24"/>
+      <c r="B284" s="23"/>
       <c r="C284" s="19"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B285" s="24"/>
+      <c r="B285" s="23"/>
       <c r="C285" s="19"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B286" s="24"/>
+      <c r="B286" s="23"/>
       <c r="C286" s="19"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B287" s="24"/>
+      <c r="B287" s="23"/>
       <c r="C287" s="19"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B288" s="24"/>
+      <c r="B288" s="23"/>
       <c r="C288" s="19"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B289" s="24"/>
+      <c r="B289" s="23"/>
       <c r="C289" s="19"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B290" s="24"/>
+      <c r="B290" s="23"/>
       <c r="C290" s="19"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B291" s="24"/>
+      <c r="B291" s="23"/>
       <c r="C291" s="19"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B292" s="24"/>
+      <c r="B292" s="23"/>
       <c r="C292" s="19"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B293" s="24"/>
+      <c r="B293" s="23"/>
       <c r="C293" s="19"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B294" s="24"/>
+      <c r="B294" s="23"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B295" s="24"/>
+      <c r="B295" s="23"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B296" s="24"/>
+      <c r="B296" s="23"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B297" s="24"/>
+      <c r="B297" s="23"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B298" s="24"/>
+      <c r="B298" s="23"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B299" s="24"/>
+      <c r="B299" s="23"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B300" s="24"/>
+      <c r="B300" s="23"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B301" s="24"/>
+      <c r="B301" s="23"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B302" s="24"/>
+      <c r="B302" s="23"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B303" s="24"/>
+      <c r="B303" s="23"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B304" s="24"/>
+      <c r="B304" s="23"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="24"/>
+      <c r="B305" s="23"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="24"/>
+      <c r="B306" s="23"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="24"/>
+      <c r="B307" s="23"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="24"/>
+      <c r="B308" s="23"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="24"/>
+      <c r="B309" s="23"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B310" s="24"/>
+      <c r="B310" s="23"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" s="24"/>
+      <c r="B311" s="23"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="24"/>
+      <c r="B312" s="23"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="24"/>
+      <c r="B313" s="23"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" s="24"/>
+      <c r="B314" s="23"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="24"/>
+      <c r="B315" s="23"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="24"/>
+      <c r="B316" s="23"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B317" s="24"/>
+      <c r="B317" s="23"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" s="24"/>
+      <c r="B318" s="23"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="25"/>
+      <c r="B319" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Rezeptname nicht angelegt" sqref="D2:D59" xr:uid="{B556851F-C992-411F-B39E-241E9CAD61FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Rezeptname nicht angelegt" sqref="H2:H59" xr:uid="{B556851F-C992-411F-B39E-241E9CAD61FE}">
       <formula1>q</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Inaktives Rezept" sqref="C61:C293 D60" xr:uid="{3B3A3780-34D2-41AD-B9B8-01674AB2B9AF}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Inaktives Rezept" sqref="C61:C293" xr:uid="{3B3A3780-34D2-41AD-B9B8-01674AB2B9AF}">
       <formula1>Rezeptaktiv</formula1>
     </dataValidation>
   </dataValidations>
@@ -9075,10 +9761,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880B138-B80A-48E5-8475-9864C03E7035}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9098,9 +9784,10 @@
     <col min="13" max="13" width="26.109375" customWidth="1"/>
     <col min="14" max="14" width="23.5546875" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9111,42 +9798,49 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -9185,11 +9879,17 @@
         <v>15</v>
       </c>
       <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N3" s="32"/>
+      <c r="P2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N3" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9198,10 +9898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8C53F-CBE4-4587-8656-B582BC3A09E8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9210,9 +9910,10 @@
     <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9225,173 +9926,212 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="D2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>31</v>
+        <v>167</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D13">
         <v>90</v>
+      </c>
+      <c r="E13" s="43">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9402,10 +10142,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F8A973-1B85-40B5-8B57-0891C298F401}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9413,22 +10153,26 @@
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4">
         <v>80</v>
@@ -9436,10 +10180,13 @@
       <c r="C2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
@@ -9447,10 +10194,13 @@
       <c r="C3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4">
         <v>120</v>
@@ -9458,10 +10208,13 @@
       <c r="C4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4">
         <v>140</v>
@@ -9469,16 +10222,22 @@
       <c r="C5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="36">
+        <v>167</v>
+      </c>
+      <c r="B6" s="35">
         <v>180</v>
       </c>
       <c r="C6">
         <v>90</v>
+      </c>
+      <c r="D6" s="43">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9488,10 +10247,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3F7033-B163-446C-895F-520CE37782D3}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9499,22 +10258,26 @@
     <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4">
         <v>39.799999999999997</v>
@@ -9522,10 +10285,13 @@
       <c r="C2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4">
         <v>52.5</v>
@@ -9533,10 +10299,13 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4">
         <v>56.8</v>
@@ -9544,10 +10313,13 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4">
         <v>63.5</v>
@@ -9555,10 +10327,13 @@
       <c r="C5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4">
         <v>74.900000000000006</v>
@@ -9566,10 +10341,13 @@
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4">
         <v>83</v>
@@ -9577,10 +10355,13 @@
       <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4">
         <v>95</v>
@@ -9588,10 +10369,13 @@
       <c r="C8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4">
         <v>105</v>
@@ -9599,10 +10383,13 @@
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B10" s="4">
         <v>115</v>
@@ -9610,10 +10397,13 @@
       <c r="C10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B11" s="4">
         <v>130</v>
@@ -9621,10 +10411,13 @@
       <c r="C11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B12" s="4">
         <v>140</v>
@@ -9632,16 +10425,22 @@
       <c r="C12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="36">
+        <v>167</v>
+      </c>
+      <c r="B13" s="35">
         <v>160</v>
       </c>
       <c r="C13">
         <v>30</v>
+      </c>
+      <c r="D13" s="43">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9651,10 +10450,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B018474-1E19-47BC-80FE-1A1E9A892C4E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9662,22 +10461,26 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4">
         <v>350</v>
@@ -9685,16 +10488,22 @@
       <c r="C2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="36">
+        <v>167</v>
+      </c>
+      <c r="B3" s="35">
         <v>500</v>
       </c>
       <c r="C3">
         <v>15</v>
+      </c>
+      <c r="D3" s="43">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
